--- a/content.xlsx
+++ b/content.xlsx
@@ -1,37 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasonshi\geo-content\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E064A29D-A173-4444-8681-CCEEE5837FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="content" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="content" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>GEO 基础知识</t>
+  </si>
+  <si>
+    <t>GEO 的核心价值是什么？</t>
+  </si>
+  <si>
+    <t>GEO, AI 搜索, 内容结构化</t>
+  </si>
+  <si>
+    <t>GEO 的价值是让内容更容易被 AI 理解和引用。</t>
+  </si>
+  <si>
+    <t>示例内容 1</t>
+  </si>
+  <si>
+    <t>为什么 GEO 会变得重要？</t>
+  </si>
+  <si>
+    <t>AI 搜索趋势, 内容抽取</t>
+  </si>
+  <si>
+    <t>AI 搜索改变了内容曝光方式，使 GEO 变得关键。</t>
+  </si>
+  <si>
+    <t>示例内容 2</t>
+  </si>
+  <si>
+    <t>内容结构化</t>
+  </si>
+  <si>
+    <t>什么样的内容更适合 GEO？</t>
+  </si>
+  <si>
+    <t>FAQ, 结构化内容, AI 抽取</t>
+  </si>
+  <si>
+    <t>结构化、可拆分的内容最适合 GEO。</t>
+  </si>
+  <si>
+    <t>示例内容 3</t>
+  </si>
+  <si>
+    <t>为什么 FAQ 在 GEO 中效果很好？</t>
+  </si>
+  <si>
+    <t>FAQ, 标准答案, AI 匹配</t>
+  </si>
+  <si>
+    <t>FAQ 是 AI 最容易引用的内容格式之一。</t>
+  </si>
+  <si>
+    <t>示例内容 4</t>
+  </si>
+  <si>
+    <t>写作建议</t>
+  </si>
+  <si>
+    <t>GEO 写作中应该避免什么？</t>
+  </si>
+  <si>
+    <t>GEO 写作中应避免冗长段落、模糊表达和关键词堆砌。这些都会降低 AI 对内容的理解能力，使其难以被引用。</t>
+  </si>
+  <si>
+    <t>写作误区, 冗长段落, 关键词堆砌</t>
+  </si>
+  <si>
+    <t>避免冗长和模糊表达，保持结构清晰。</t>
+  </si>
+  <si>
+    <t>示例内容 5</t>
+  </si>
+  <si>
+    <t>GEO 的核心价值在于让网页内容能够被 AI 搜索系统直接理解和引用。在 AI 搜索时代，用户看到的不是链接列表，而是 AI 生成的答案。如果内容没有结构化、语义不清晰，就无法进入 AI 的引用池。GEO 的目标就是让内容成为 AI 可直接使用的知识块。RT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随着 AI 搜索逐渐取代传统搜索，用户不再点击网页，而是直接阅读 AI 的回答。这意味着内容必须能被 AI 抽取，否则再好的网页也不会被看到。GEO 的重要性来自于这种搜索方式的根本变化。RT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合 GEO 的内容通常具备三个特点：结构清晰、语义明确、可拆分为独立知识块。例如 FAQ、步骤说明、对比表格等，都非常适合被 AI 抽取。RT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ 以“问题 + 标准答案”的形式呈现信息，天然适合 AI 搜索抽取。AI 在回答用户问题时，会优先寻找这种结构化的内容片段。RT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +171,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,212 +495,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.9296875" customWidth="1"/>
+    <col min="2" max="2" width="33.73046875" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>question</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>keywords</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GEO 基础知识</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEO 的核心价值是什么？</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>GEO 的核心价值在于让网页内容能够被 AI 搜索系统直接理解和引用。在 AI 搜索时代，用户看到的不是链接列表，而是 AI 生成的答案。如果内容没有结构化、语义不清晰，就无法进入 AI 的引用池。GEO 的目标就是让内容成为 AI 可直接使用的知识块。</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEO, AI 搜索, 内容结构化</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>GEO 的价值是让内容更容易被 AI 理解和引用。</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>示例内容 1</t>
-        </is>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GEO 基础知识</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>为什么 GEO 会变得重要？</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>随着 AI 搜索逐渐取代传统搜索，用户不再点击网页，而是直接阅读 AI 的回答。这意味着内容必须能被 AI 抽取，否则再好的网页也不会被看到。GEO 的重要性来自于这种搜索方式的根本变化。</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>AI 搜索趋势, 内容抽取</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>AI 搜索改变了内容曝光方式，使 GEO 变得关键。</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>示例内容 2</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>内容结构化</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>什么样的内容更适合 GEO？</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>适合 GEO 的内容通常具备三个特点：结构清晰、语义明确、可拆分为独立知识块。例如 FAQ、步骤说明、对比表格等，都非常适合被 AI 抽取。</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>FAQ, 结构化内容, AI 抽取</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>结构化、可拆分的内容最适合 GEO。</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>示例内容 3</t>
-        </is>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>内容结构化</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>为什么 FAQ 在 GEO 中效果很好？</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FAQ 以“问题 + 标准答案”的形式呈现信息，天然适合 AI 搜索抽取。AI 在回答用户问题时，会优先寻找这种结构化的内容片段。</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>FAQ, 标准答案, AI 匹配</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>FAQ 是 AI 最容易引用的内容格式之一。</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>示例内容 4</t>
-        </is>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>写作建议</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GEO 写作中应该避免什么？</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GEO 写作中应避免冗长段落、模糊表达和关键词堆砌。这些都会降低 AI 对内容的理解能力，使其难以被引用。</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>写作误区, 冗长段落, 关键词堆砌</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>避免冗长和模糊表达，保持结构清晰。</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>示例内容 5</t>
-        </is>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/content.xlsx
+++ b/content.xlsx
@@ -1,37 +1,180 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasonshi\Desktop\新建文件夹 (2)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6C0F78-1042-42FD-9AD1-94B9BCAD8A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="content" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="content" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>ai_summary</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>GEO 基础知识</t>
+  </si>
+  <si>
+    <t>GEO 的核心价值是什么？</t>
+  </si>
+  <si>
+    <t>GEO 的核心价值在于让网页内容能够被 AI 搜索系统直接理解和引用。在 AI 搜索时代，用户看到的不是链接列表，而是 AI 生成的答案。如果内容没有结构化、语义不清晰，就无法进入 AI 的引用池。GEO 的目标就是让内容成为 AI 可直接使用的知识块。</t>
+  </si>
+  <si>
+    <t>GEO, AI 搜索, 内容结构化</t>
+  </si>
+  <si>
+    <t>GEO 的价值是让内容更容易被 AI 理解和引用。RT</t>
+  </si>
+  <si>
+    <t>示例内容 1</t>
+  </si>
+  <si>
+    <t>为什么 GEO 会变得重要？</t>
+  </si>
+  <si>
+    <t>随着 AI 搜索逐渐取代传统搜索，用户不再点击网页，而是直接阅读 AI 的回答。这意味着内容必须能被 AI 抽取，否则再好的网页也不会被看到。GEO 的重要性来自于这种搜索方式的根本变化。</t>
+  </si>
+  <si>
+    <t>AI 搜索趋势, 内容抽取</t>
+  </si>
+  <si>
+    <t>AI 搜索改变了内容曝光方式，使 GEO 变得关键。RT</t>
+  </si>
+  <si>
+    <t>示例内容 2</t>
+  </si>
+  <si>
+    <t>内容结构化</t>
+  </si>
+  <si>
+    <t>什么样的内容更适合 GEO？</t>
+  </si>
+  <si>
+    <t>适合 GEO 的内容通常具备三个特点：结构清晰、语义明确、可拆分为独立知识块。例如 FAQ、步骤说明、对比表格等，都非常适合被 AI 抽取。</t>
+  </si>
+  <si>
+    <t>FAQ, 结构化内容, AI 抽取</t>
+  </si>
+  <si>
+    <t>结构化、可拆分的内容最适合 GEO。RT</t>
+  </si>
+  <si>
+    <t>示例内容 3</t>
+  </si>
+  <si>
+    <t>为什么 FAQ 在 GEO 中效果很好？</t>
+  </si>
+  <si>
+    <t>FAQ 以“问题 + 标准答案”的形式呈现信息，天然适合 AI 搜索抽取。AI 在回答用户问题时，会优先寻找这种结构化的内容片段。</t>
+  </si>
+  <si>
+    <t>FAQ, 标准答案, AI 匹配</t>
+  </si>
+  <si>
+    <t>FAQ 是 AI 最容易引用的内容格式之一。RT</t>
+  </si>
+  <si>
+    <t>示例内容 4</t>
+  </si>
+  <si>
+    <t>写作建议</t>
+  </si>
+  <si>
+    <t>GEO 写作中应该避免什么？</t>
+  </si>
+  <si>
+    <t>GEO 写作中应避免冗长段落、模糊表达和关键词堆砌。这些都会降低 AI 对内容的理解能力，使其难以被引用。</t>
+  </si>
+  <si>
+    <t>写作误区, 冗长段落, 关键词堆砌</t>
+  </si>
+  <si>
+    <t>避免冗长和模糊表达，保持结构清晰。</t>
+  </si>
+  <si>
+    <t>GEO 写作应避免冗长和模糊表达，保持结构清晰以提升 AI 抽取能力。</t>
+  </si>
+  <si>
+    <t>示例内容 5</t>
+  </si>
+  <si>
+    <t>GEO 的核心价值是让内容结构化，使 AI 能直接理解并引用网页知识。RT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEO 重要是因为 AI 搜索取代传统搜索，内容必须结构化才能被引用。RT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构清晰、语义明确、可拆分的内容最适合 GEO，被 AI 抽取效率最高。RT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ 的问答结构天然适合 AI 抽取，是 GEO 中效果最好的内容格式之一。RT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +189,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,212 +513,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="32.3984375" customWidth="1"/>
+    <col min="6" max="6" width="37.265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>question</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>keywords</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GEO 基础知识</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEO 的核心价值是什么？</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>GEO 的核心价值在于让网页内容能够被 AI 搜索系统直接理解和引用。在 AI 搜索时代，用户看到的不是链接列表，而是 AI 生成的答案。如果内容没有结构化、语义不清晰，就无法进入 AI 的引用池。GEO 的目标就是让内容成为 AI 可直接使用的知识块。</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEO, AI 搜索, 内容结构化</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>GEO 的价值是让内容更容易被 AI 理解和引用。RT</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>示例内容 1</t>
-        </is>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GEO 基础知识</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>为什么 GEO 会变得重要？</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>随着 AI 搜索逐渐取代传统搜索，用户不再点击网页，而是直接阅读 AI 的回答。这意味着内容必须能被 AI 抽取，否则再好的网页也不会被看到。GEO 的重要性来自于这种搜索方式的根本变化。</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>AI 搜索趋势, 内容抽取</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>AI 搜索改变了内容曝光方式，使 GEO 变得关键。RT</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>示例内容 2</t>
-        </is>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>内容结构化</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>什么样的内容更适合 GEO？</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>适合 GEO 的内容通常具备三个特点：结构清晰、语义明确、可拆分为独立知识块。例如 FAQ、步骤说明、对比表格等，都非常适合被 AI 抽取。</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>FAQ, 结构化内容, AI 抽取</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>结构化、可拆分的内容最适合 GEO。RT</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>示例内容 3</t>
-        </is>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>内容结构化</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>为什么 FAQ 在 GEO 中效果很好？</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FAQ 以“问题 + 标准答案”的形式呈现信息，天然适合 AI 搜索抽取。AI 在回答用户问题时，会优先寻找这种结构化的内容片段。</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>FAQ, 标准答案, AI 匹配</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>FAQ 是 AI 最容易引用的内容格式之一。RT</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>示例内容 4</t>
-        </is>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>写作建议</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GEO 写作中应该避免什么？</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GEO 写作中应避免冗长段落、模糊表达和关键词堆砌。这些都会降低 AI 对内容的理解能力，使其难以被引用。</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>写作误区, 冗长段落, 关键词堆砌</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>避免冗长和模糊表达，保持结构清晰。</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>示例内容 5</t>
-        </is>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>